--- a/matrice.xlsx
+++ b/matrice.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tgl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\tgl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5647D799-595A-4592-8A1D-E4FD95390462}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48D3AF47-F002-4EB1-938B-C4947180252D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{B4C3F0D5-48D2-45B1-8051-CF096D7D98E5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4C3F0D5-48D2-45B1-8051-CF096D7D98E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="49">
   <si>
     <t>Progrés Teste InBody</t>
   </si>
@@ -288,7 +288,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -338,17 +338,19 @@
     <sheetNames>
       <sheetName val="Product price list"/>
       <sheetName val="Feuil1"/>
+      <sheetName val="MatriceMMEYEDDOU"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
       <sheetData sheetId="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -636,7 +638,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -646,18 +648,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03A84ED-CCC1-4B93-9452-ABC04E051325}">
   <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.7265625" customWidth="1"/>
-    <col min="2" max="2" width="14.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="25.81640625" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" customWidth="1"/>
+    <col min="1" max="1" width="29.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>48</v>
       </c>
@@ -674,7 +678,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -691,7 +695,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -708,7 +712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -725,7 +729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -742,7 +746,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -759,7 +763,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -774,7 +778,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -789,7 +793,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -804,16 +808,14 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>28</v>
       </c>
@@ -821,16 +823,14 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
         <v>39</v>
       </c>
@@ -838,16 +838,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
         <v>42</v>
       </c>
@@ -855,16 +853,14 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
         <v>31</v>
       </c>
@@ -872,52 +868,46 @@
         <v>150</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
         <v>1200</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
         <v>2500</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -934,7 +924,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -951,7 +941,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
@@ -968,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
@@ -985,7 +975,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1000,7 +990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1015,7 +1005,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1030,7 +1020,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
@@ -1047,7 +1037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
@@ -1081,7 +1071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1098,7 +1088,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1113,7 +1103,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>23</v>
       </c>
@@ -1128,7 +1118,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>23</v>
       </c>
@@ -1143,7 +1133,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
@@ -1158,7 +1148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
@@ -1173,7 +1163,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
@@ -1188,7 +1178,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
@@ -1203,7 +1193,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>1</v>
       </c>
@@ -1216,7 +1206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>1</v>
       </c>
@@ -1229,7 +1219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1242,7 +1232,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -1255,7 +1245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1258,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>1</v>
       </c>
@@ -1294,7 +1284,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -1307,7 +1297,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +1310,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1323,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>1</v>
       </c>
@@ -1346,7 +1336,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>1</v>
       </c>
@@ -1359,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>1</v>
       </c>
@@ -1372,7 +1362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>1</v>
       </c>
@@ -1385,7 +1375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +1388,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>1</v>
       </c>
@@ -1415,7 +1405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -1432,7 +1422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>1</v>
       </c>
@@ -1449,7 +1439,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>1</v>
       </c>
@@ -1466,7 +1456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>1</v>
       </c>
@@ -1483,7 +1473,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1490,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>1</v>
       </c>
@@ -1517,7 +1507,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>1</v>
       </c>
@@ -1534,7 +1524,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>1</v>
       </c>
@@ -1549,7 +1539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>1</v>
       </c>
@@ -1564,7 +1554,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>1</v>
       </c>
@@ -1579,7 +1569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>1</v>
       </c>
@@ -1594,7 +1584,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>1</v>
       </c>
@@ -1609,7 +1599,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>1</v>
       </c>
@@ -1624,7 +1614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>1</v>
       </c>
@@ -1639,7 +1629,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>1</v>
       </c>
@@ -1654,7 +1644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -1671,7 +1661,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
@@ -1688,7 +1678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>46</v>
       </c>
@@ -1705,7 +1695,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>46</v>
       </c>
@@ -1722,7 +1712,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>46</v>
       </c>
@@ -1739,7 +1729,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>46</v>
       </c>
@@ -1756,7 +1746,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1763,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>46</v>
       </c>
@@ -1790,7 +1780,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>46</v>
       </c>
@@ -1807,7 +1797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1814,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>46</v>
       </c>
@@ -1839,7 +1829,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
@@ -1854,7 +1844,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>46</v>
       </c>
@@ -1871,7 +1861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>46</v>
       </c>
@@ -1888,7 +1878,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,7 +1895,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>46</v>
       </c>
@@ -1922,7 +1912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>46</v>
       </c>
@@ -1939,7 +1929,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>46</v>
       </c>
@@ -1954,7 +1944,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>46</v>
       </c>
@@ -1969,7 +1959,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>46</v>
       </c>
